--- a/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
+++ b/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -38,10 +38,61 @@
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">bfi_a_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_c_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_e_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_n_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_o_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_bfi_completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_bfi_logical_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_iat_completeness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_iat_performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_participant_without_bfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_participant_without_iat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_unique_id_is.na</t>
+  </si>
+  <si>
     <t xml:space="preserve">gender</t>
   </si>
   <si>
     <t xml:space="preserve">Participant gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iat_D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iat_mean1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iat_mean2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iat_SD</t>
   </si>
   <si>
     <t xml:space="preserve">unique_id</t>
@@ -439,7 +490,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="25.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="31.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="60.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="26.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
@@ -485,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -499,10 +550,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -516,10 +567,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -533,10 +584,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -550,10 +601,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -567,10 +618,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -584,10 +635,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -601,10 +652,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -618,10 +669,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -635,10 +686,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -652,35 +703,300 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
         <v>7</v>
       </c>
     </row>

--- a/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
+++ b/personality and race-IAT study/data/processed/data_processed_codebook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -41,42 +41,111 @@
     <t xml:space="preserve">bfi_a_mean</t>
   </si>
   <si>
+    <t xml:space="preserve">mean score for bfi subscale agreeableness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_a2, bfi_a4, bfi_a5, bfi_a7, bfi_a9, bfi_a1_rev, bfi_a3_rev, bfi_a6_rev, bfi_a8_rev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big five inventory (bfi)</t>
+  </si>
+  <si>
     <t xml:space="preserve">bfi_c_mean</t>
   </si>
   <si>
+    <t xml:space="preserve">bfi_c1, bfi_c3, bfi_c6, bfi_c7, bfi_c8, bfi_c, bfi_c2_rev, bfi_c4_rev, bfi_c5_rev, bfi_c9_rev</t>
+  </si>
+  <si>
     <t xml:space="preserve">bfi_e_mean</t>
   </si>
   <si>
+    <t xml:space="preserve">mean score for bfi subscale extroversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_e1, bfi_e3, bfi_e4, bfi_e6, bfi_e8, bfi_e2_rev, bfi_e7_rev, bfi_e5_rev</t>
+  </si>
+  <si>
     <t xml:space="preserve">bfi_n_mean</t>
   </si>
   <si>
+    <t xml:space="preserve">mean score for bfi subscale neuroticism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_n1, bfi_n3, bfi_n4, bfi_n6, bfi_n8, bfi_n2_rev, bfi_n5_rev, bfi_n7_rev</t>
+  </si>
+  <si>
     <t xml:space="preserve">bfi_o_mean</t>
   </si>
   <si>
+    <t xml:space="preserve">mean score for bfi subscale openness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bfi_o1, bfi_o10, bfi_o2, bfi_o3, bfi_o4, bfi_o5, bfi_o6, bfi_o8, bfi_o7_rev, bfi_o9_rev</t>
+  </si>
+  <si>
     <t xml:space="preserve">exclude_bfi_completeness</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclusion variable: Participants who did not complete the entire subscale they were supposed to, have been marked as excluded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include or exclude</t>
+  </si>
+  <si>
     <t xml:space="preserve">exclude_bfi_logical_scores</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclusion variable: Item-level data from the subscales that are below 1 or above 6 have been marked as excluded.</t>
+  </si>
+  <si>
     <t xml:space="preserve">exclude_iat_completeness</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclusion variable: Participants with incomplete IAT trials (120) have been marked as excluded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of IAT trials &lt; 120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implicit Association Test (iat)</t>
+  </si>
+  <si>
     <t xml:space="preserve">exclude_iat_performance</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclusion variable: Participants with more than 10% of their trial durations below 300ms or an accuracy less than 75% have been marked as excluded.</t>
+  </si>
+  <si>
     <t xml:space="preserve">exclude_participant</t>
   </si>
   <si>
+    <t xml:space="preserve">Master exclusion: Combine all exclusion variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exclude_bfi_completeness, exclude_bfi_logicalscores, exclude_iat_completeness, exclude_ait_performance</t>
+  </si>
+  <si>
     <t xml:space="preserve">exclude_participant_without_bfi</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclusion variable: Participants who did not participate in the BFI</t>
+  </si>
+  <si>
     <t xml:space="preserve">exclude_participant_without_iat</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclusion variable: Participants who did not participate in the IAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">exclude_unique_id_is.na</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclusion variable: Participants without unique_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">gender</t>
   </si>
   <si>
@@ -86,13 +155,40 @@
     <t xml:space="preserve">iat_D</t>
   </si>
   <si>
+    <t xml:space="preserve">Greenwald D score from the trial-level IAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(iat_mean2-iat_mean1)/ait_SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2 to +2</t>
+  </si>
+  <si>
     <t xml:space="preserve">iat_mean1</t>
   </si>
   <si>
+    <t xml:space="preserve">mean RT for blocks 3 and 6 (one score using trials from both blocks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial_reaction_time_in_ms from block 3 and 6 (dataframe: data_iat in R code) was used to calculate the mean</t>
+  </si>
+  <si>
     <t xml:space="preserve">iat_mean2</t>
   </si>
   <si>
+    <t xml:space="preserve">mean RT for blocks 4 and 7 (one score using trials from both blocks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial_reaction_time_in_ms from block 4 and 7 (dataframe: data_iat in R code) was used to calculate the mean</t>
+  </si>
+  <si>
     <t xml:space="preserve">iat_SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard deviation of RTs in block 3, 4, 6 and 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial_reaction_time_in_ms (dataframe: data_iat in R code) from block 3, 4, 6 and 7</t>
   </si>
   <si>
     <t xml:space="preserve">unique_id</t>
@@ -491,10 +587,10 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="31.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="60.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="26.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="147.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="107.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="18.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="31.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -524,480 +620,472 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2"/>
+      <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13"/>
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
       <c r="C13"/>
-      <c r="D13"/>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14"/>
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
       <c r="C14"/>
-      <c r="D14"/>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
       <c r="E14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15"/>
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
       <c r="C15"/>
-      <c r="D15"/>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
       <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
+      <c r="D16"/>
+      <c r="E16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D18"/>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D19"/>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>7</v>
-      </c>
+      <c r="D21"/>
+      <c r="E21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
